--- a/tableDates.xlsx
+++ b/tableDates.xlsx
@@ -28,7 +28,7 @@
     <t>email</t>
   </si>
   <si>
-    <t>Correct tasks</t>
+    <t>City</t>
   </si>
   <si>
     <t>Percentage of correct tasks</t>
